--- a/Code/Results/Cases/Case_4_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.672384454302801</v>
+        <v>0.8520199728707212</v>
       </c>
       <c r="C2">
-        <v>0.6655021790240596</v>
+        <v>0.2234733660233132</v>
       </c>
       <c r="D2">
-        <v>0.2079235441372873</v>
+        <v>0.0797080734427027</v>
       </c>
       <c r="E2">
-        <v>1.448606122965828</v>
+        <v>0.425497448737346</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4685452019783867</v>
+        <v>0.3167004636070629</v>
       </c>
       <c r="H2">
-        <v>0.2831782492658874</v>
+        <v>0.4419693898604891</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.579538375877334</v>
+        <v>0.8079598454597203</v>
       </c>
       <c r="O2">
-        <v>1.538610906976857</v>
+        <v>1.446305228668251</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.323468370092201</v>
+        <v>0.7464385980046018</v>
       </c>
       <c r="C3">
-        <v>0.5865184134411265</v>
+        <v>0.1985273790015185</v>
       </c>
       <c r="D3">
-        <v>0.180068983565576</v>
+        <v>0.07213913390636151</v>
       </c>
       <c r="E3">
-        <v>1.242890832367166</v>
+        <v>0.3710987126234215</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4126351340039633</v>
+        <v>0.3061705257600238</v>
       </c>
       <c r="H3">
-        <v>0.2638368612803816</v>
+        <v>0.4415624552119937</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5878255618478931</v>
+        <v>0.812434400066671</v>
       </c>
       <c r="O3">
-        <v>1.379142494600615</v>
+        <v>1.422795646831162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.109825537016093</v>
+        <v>0.6815076707742946</v>
       </c>
       <c r="C4">
-        <v>0.5380684249533374</v>
+        <v>0.1831284550079317</v>
       </c>
       <c r="D4">
-        <v>0.1631541778553327</v>
+        <v>0.06752681047800024</v>
       </c>
       <c r="E4">
-        <v>1.119055754086929</v>
+        <v>0.3377923118596016</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3795754871072035</v>
+        <v>0.300034475101782</v>
       </c>
       <c r="H4">
-        <v>0.252703569698113</v>
+        <v>0.4416194215679496</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5938315588612966</v>
+        <v>0.8155669144548767</v>
       </c>
       <c r="O4">
-        <v>1.2854618737137</v>
+        <v>1.409689370933592</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.022870052443494</v>
+        <v>0.6550227555186154</v>
       </c>
       <c r="C5">
-        <v>0.5183274124379693</v>
+        <v>0.1768329077078761</v>
       </c>
       <c r="D5">
-        <v>0.1563024762781708</v>
+        <v>0.0656560306131837</v>
       </c>
       <c r="E5">
-        <v>1.069119131231673</v>
+        <v>0.3242415683853039</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3663918373704149</v>
+        <v>0.2976162070390131</v>
       </c>
       <c r="H5">
-        <v>0.2483394985254677</v>
+        <v>0.4417196117754543</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5965007056265321</v>
+        <v>0.8169403745251529</v>
       </c>
       <c r="O5">
-        <v>1.248256596163657</v>
+        <v>1.404680914476586</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.008436336992901</v>
+        <v>0.6506234731130007</v>
       </c>
       <c r="C6">
-        <v>0.5150493522383215</v>
+        <v>0.175786314713605</v>
       </c>
       <c r="D6">
-        <v>0.1551670760140667</v>
+        <v>0.06534591841133874</v>
       </c>
       <c r="E6">
-        <v>1.060856407274912</v>
+        <v>0.321992743883655</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3642192619509359</v>
+        <v>0.2972196039344226</v>
       </c>
       <c r="H6">
-        <v>0.2476248993308161</v>
+        <v>0.441740892262473</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5969570480038016</v>
+        <v>0.8171742940355671</v>
       </c>
       <c r="O6">
-        <v>1.242134657876022</v>
+        <v>1.403869295376779</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.1086524519948</v>
+        <v>0.6811505859801059</v>
       </c>
       <c r="C7">
-        <v>0.5378021908512665</v>
+        <v>0.183043633153261</v>
       </c>
       <c r="D7">
-        <v>0.1630616142507932</v>
+        <v>0.06750154497855476</v>
       </c>
       <c r="E7">
-        <v>1.118380276583395</v>
+        <v>0.3376094756890495</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3793965591418811</v>
+        <v>0.3000015293748675</v>
       </c>
       <c r="H7">
-        <v>0.2526440321304477</v>
+        <v>0.4416204613336987</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5938666700262161</v>
+        <v>0.8155850448071078</v>
       </c>
       <c r="O7">
-        <v>1.28495630145099</v>
+        <v>1.409620481231372</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.551927832850367</v>
+        <v>0.8156375692544202</v>
       </c>
       <c r="C8">
-        <v>0.6382533330890965</v>
+        <v>0.2148891515977311</v>
       </c>
       <c r="D8">
-        <v>0.1982764987521648</v>
+        <v>0.07709101042431143</v>
       </c>
       <c r="E8">
-        <v>1.377101805001203</v>
+        <v>0.4067199514648792</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4489847643763341</v>
+        <v>0.3130010133544943</v>
       </c>
       <c r="H8">
-        <v>0.2763466185298427</v>
+        <v>0.4417652881954695</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5821996879871421</v>
+        <v>0.8094227936367133</v>
       </c>
       <c r="O8">
-        <v>1.48268872747488</v>
+        <v>1.437922343378176</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.428072325278208</v>
+        <v>1.078513806947512</v>
       </c>
       <c r="C9">
-        <v>0.8360580547896745</v>
+        <v>0.2766793140977484</v>
       </c>
       <c r="D9">
-        <v>0.2691209818851803</v>
+        <v>0.09617631966256113</v>
       </c>
       <c r="E9">
-        <v>1.908885348851285</v>
+        <v>0.5430890381526723</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5970260076649225</v>
+        <v>0.3411352589640302</v>
       </c>
       <c r="H9">
-        <v>0.3293957858647047</v>
+        <v>0.4444925873505241</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5670424872067272</v>
+        <v>0.8003910041157383</v>
       </c>
       <c r="O9">
-        <v>1.908649245905565</v>
+        <v>1.504044797490877</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.079360279303273</v>
+        <v>1.27110733669673</v>
       </c>
       <c r="C10">
-        <v>0.9825995273106969</v>
+        <v>0.3216681755163222</v>
       </c>
       <c r="D10">
-        <v>0.3227109816750868</v>
+        <v>0.1103740216886138</v>
       </c>
       <c r="E10">
-        <v>2.322043195700516</v>
+        <v>0.6439312962175165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7151502062131811</v>
+        <v>0.3634587668815783</v>
       </c>
       <c r="H10">
-        <v>0.3734087656943217</v>
+        <v>0.447999044992315</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.5612761246357252</v>
+        <v>0.7956126648292496</v>
       </c>
       <c r="O10">
-        <v>2.251935672537911</v>
+        <v>1.559218994920172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.378147001254376</v>
+        <v>1.358602154837058</v>
       </c>
       <c r="C11">
-        <v>1.049711423019545</v>
+        <v>0.3420449685987137</v>
       </c>
       <c r="D11">
-        <v>0.3475356865344708</v>
+        <v>0.1168721984325742</v>
       </c>
       <c r="E11">
-        <v>2.516850797712891</v>
+        <v>0.689979021072773</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7714936287641763</v>
+        <v>0.3739826124665626</v>
       </c>
       <c r="H11">
-        <v>0.3947829656106592</v>
+        <v>0.4499234614084884</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5599807208450329</v>
+        <v>0.7938416253101366</v>
       </c>
       <c r="O11">
-        <v>2.416448159870185</v>
+        <v>1.585777000038973</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.491729916573263</v>
+        <v>1.391716640454945</v>
       </c>
       <c r="C12">
-        <v>1.075206724834914</v>
+        <v>0.34974815995227</v>
       </c>
       <c r="D12">
-        <v>0.3570104757249482</v>
+        <v>0.1193386365585383</v>
       </c>
       <c r="E12">
-        <v>2.591798273856</v>
+        <v>0.7074434256330022</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.793258144354283</v>
+        <v>0.3780214508763322</v>
       </c>
       <c r="H12">
-        <v>0.4030954168910625</v>
+        <v>0.4506997646181361</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5596960241303037</v>
+        <v>0.7932288370498668</v>
       </c>
       <c r="O12">
-        <v>2.480109786386208</v>
+        <v>1.596045590715363</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.467246955034852</v>
+        <v>1.384585656927527</v>
       </c>
       <c r="C13">
-        <v>1.069711940208435</v>
+        <v>0.3480897250406088</v>
       </c>
       <c r="D13">
-        <v>0.3549664395427214</v>
+        <v>0.1188071901275976</v>
       </c>
       <c r="E13">
-        <v>2.575601251131999</v>
+        <v>0.7036809133413868</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7885507956455768</v>
+        <v>0.3771492165402748</v>
       </c>
       <c r="H13">
-        <v>0.4012950530353407</v>
+        <v>0.4505304547858202</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5597479318046794</v>
+        <v>0.793358238841904</v>
       </c>
       <c r="O13">
-        <v>2.466335639567347</v>
+        <v>1.593824623218296</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.387482264833636</v>
+        <v>1.361326868493848</v>
       </c>
       <c r="C14">
-        <v>1.051807199686124</v>
+        <v>0.3426789780783679</v>
       </c>
       <c r="D14">
-        <v>0.3483136348912694</v>
+        <v>0.1170749989829716</v>
       </c>
       <c r="E14">
-        <v>2.522991965671167</v>
+        <v>0.6914152723078075</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7732752941214898</v>
+        <v>0.3743138104001105</v>
       </c>
       <c r="H14">
-        <v>0.3954623098758248</v>
+        <v>0.449986373766464</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5599530830375841</v>
+        <v>0.7937900513061606</v>
       </c>
       <c r="O14">
-        <v>2.421657296126796</v>
+        <v>1.586617550756102</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.338683694000451</v>
+        <v>1.347077825393967</v>
       </c>
       <c r="C15">
-        <v>1.040851176933529</v>
+        <v>0.3393630305585873</v>
       </c>
       <c r="D15">
-        <v>0.3442485788219045</v>
+        <v>0.1160147276281833</v>
       </c>
       <c r="E15">
-        <v>2.49092683247585</v>
+        <v>0.6839058088808798</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.7639760951430219</v>
+        <v>0.3725840533953004</v>
       </c>
       <c r="H15">
-        <v>0.3919187995477671</v>
+        <v>0.4496593096293822</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5601060165702876</v>
+        <v>0.7940620838497381</v>
       </c>
       <c r="O15">
-        <v>2.394473355673938</v>
+        <v>1.582230628967352</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.059890858614096</v>
+        <v>1.265386898229963</v>
       </c>
       <c r="C16">
-        <v>0.9782240447107711</v>
+        <v>0.3203346920404329</v>
       </c>
       <c r="D16">
-        <v>0.3210984459201285</v>
+        <v>0.1099501493337414</v>
       </c>
       <c r="E16">
-        <v>2.309465872049486</v>
+        <v>0.6409256508423624</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7115249513823301</v>
+        <v>0.3627784855973033</v>
       </c>
       <c r="H16">
-        <v>0.3720411220395761</v>
+        <v>0.4478799246857079</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5613887452028195</v>
+        <v>0.7957365056688417</v>
       </c>
       <c r="O16">
-        <v>2.241366003654235</v>
+        <v>1.557512883320413</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.889556536695693</v>
+        <v>1.215241431867071</v>
       </c>
       <c r="C17">
-        <v>0.9399307918822899</v>
+        <v>0.3086384626095366</v>
       </c>
       <c r="D17">
-        <v>0.3070177470871442</v>
+        <v>0.1062398829098754</v>
       </c>
       <c r="E17">
-        <v>2.200030530770505</v>
+        <v>0.6146047871471154</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.680052129582748</v>
+        <v>0.3568580055269592</v>
       </c>
       <c r="H17">
-        <v>0.3602095118693569</v>
+        <v>0.4468728258510453</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5625259299357666</v>
+        <v>0.7968668109276962</v>
       </c>
       <c r="O17">
-        <v>2.149689190628607</v>
+        <v>1.542724342118788</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.791816108749401</v>
+        <v>1.186388142893861</v>
       </c>
       <c r="C18">
-        <v>0.91794670505044</v>
+        <v>0.3019027528762876</v>
       </c>
       <c r="D18">
-        <v>0.2989602593126364</v>
+        <v>0.1041095586376173</v>
       </c>
       <c r="E18">
-        <v>2.1377189740234</v>
+        <v>0.5994819806032723</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.6621917660494603</v>
+        <v>0.3534873728815455</v>
       </c>
       <c r="H18">
-        <v>0.3535300030102491</v>
+        <v>0.4463245526658142</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5633040142019112</v>
+        <v>0.7975548336651599</v>
       </c>
       <c r="O18">
-        <v>2.097734259738274</v>
+        <v>1.534355579889279</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.758760392058832</v>
+        <v>1.176617068809662</v>
       </c>
       <c r="C19">
-        <v>0.9105098633552586</v>
+        <v>0.299620732080399</v>
       </c>
       <c r="D19">
-        <v>0.2962389455003205</v>
+        <v>0.1033889059499842</v>
       </c>
       <c r="E19">
-        <v>2.116724619799214</v>
+        <v>0.5943643868934174</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.6561845763697249</v>
+        <v>0.3523520693379254</v>
       </c>
       <c r="H19">
-        <v>0.3512893378687636</v>
+        <v>0.4461442317336264</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5635883249262363</v>
+        <v>0.7977942970585801</v>
       </c>
       <c r="O19">
-        <v>2.080271640541014</v>
+        <v>1.53154557146658</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.907664435725508</v>
+        <v>1.220580642831237</v>
       </c>
       <c r="C20">
-        <v>0.9440027966095101</v>
+        <v>0.3098844122096693</v>
       </c>
       <c r="D20">
-        <v>0.3085123115454564</v>
+        <v>0.1066344615928045</v>
       </c>
       <c r="E20">
-        <v>2.211613318999554</v>
+        <v>0.6174049902606811</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.6833770531960823</v>
+        <v>0.3574846576700708</v>
       </c>
       <c r="H20">
-        <v>0.3614558295132753</v>
+        <v>0.4469768250250752</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.562391936682765</v>
+        <v>0.7967425656561034</v>
       </c>
       <c r="O20">
-        <v>2.159366989388104</v>
+        <v>1.544284392898078</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.410898515214058</v>
+        <v>1.36815903295701</v>
       </c>
       <c r="C21">
-        <v>1.057063899682078</v>
+        <v>0.3442686022216606</v>
       </c>
       <c r="D21">
-        <v>0.3502656260005779</v>
+        <v>0.1175836300477897</v>
       </c>
       <c r="E21">
-        <v>2.538410951597911</v>
+        <v>0.695017235251882</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7777499952578211</v>
+        <v>0.3751451756250077</v>
       </c>
       <c r="H21">
-        <v>0.3971693932939218</v>
+        <v>0.4501448908422105</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5598871130626151</v>
+        <v>0.793661647295508</v>
       </c>
       <c r="O21">
-        <v>2.434741988322429</v>
+        <v>1.588728683719438</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.742391704191277</v>
+        <v>1.464505191610669</v>
       </c>
       <c r="C22">
-        <v>1.131440227114979</v>
+        <v>0.3666644186203882</v>
       </c>
       <c r="D22">
-        <v>0.3779917780435795</v>
+        <v>0.1247728966167472</v>
       </c>
       <c r="E22">
-        <v>2.758968522304784</v>
+        <v>0.74590045162509</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.8419548842817761</v>
+        <v>0.3870005778549626</v>
       </c>
       <c r="H22">
-        <v>0.4217969950642555</v>
+        <v>0.4524927709863391</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.559457796517151</v>
+        <v>0.7919853648367194</v>
       </c>
       <c r="O22">
-        <v>2.622757088262063</v>
+        <v>1.619010122788836</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.565201606986136</v>
+        <v>1.413093383856221</v>
       </c>
       <c r="C23">
-        <v>1.091693723310073</v>
+        <v>0.3547184174044844</v>
       </c>
       <c r="D23">
-        <v>0.3631501617168738</v>
+        <v>0.1209327883019142</v>
       </c>
       <c r="E23">
-        <v>2.640543696517838</v>
+        <v>0.7187278618635133</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.8074371039488284</v>
+        <v>0.3806442477987275</v>
       </c>
       <c r="H23">
-        <v>0.4085264062567688</v>
+        <v>0.4512142130389662</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5595711389453015</v>
+        <v>0.7928491773190132</v>
       </c>
       <c r="O23">
-        <v>2.521615213694929</v>
+        <v>1.602734776216437</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.899477277728181</v>
+        <v>1.21816686020901</v>
       </c>
       <c r="C24">
-        <v>0.9421617472927437</v>
+        <v>0.3093211538622711</v>
       </c>
       <c r="D24">
-        <v>0.3078365022926874</v>
+        <v>0.1064560639863004</v>
       </c>
       <c r="E24">
-        <v>2.206374872362147</v>
+        <v>0.6161389893273395</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.6818731310207511</v>
+        <v>0.3572012450858324</v>
       </c>
       <c r="H24">
-        <v>0.3608919890889979</v>
+        <v>0.4469297113133166</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5624521289729785</v>
+        <v>0.7967986179577338</v>
       </c>
       <c r="O24">
-        <v>2.154989328612515</v>
+        <v>1.543578678634987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.189985074982303</v>
+        <v>1.007492380989447</v>
       </c>
       <c r="C25">
-        <v>0.7823897000923807</v>
+        <v>0.2600346739734505</v>
       </c>
       <c r="D25">
-        <v>0.2497199872437648</v>
+        <v>0.09098272485020686</v>
       </c>
       <c r="E25">
-        <v>1.761682991087753</v>
+        <v>0.5060931205242838</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.5555128104540472</v>
+        <v>0.333236942504854</v>
       </c>
       <c r="H25">
-        <v>0.314240464179079</v>
+        <v>0.443491849494194</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5702511635445475</v>
+        <v>0.8025079528096057</v>
       </c>
       <c r="O25">
-        <v>1.788637766673418</v>
+        <v>1.485007509827227</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_190/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_190/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8520199728707212</v>
+        <v>2.672384454302914</v>
       </c>
       <c r="C2">
-        <v>0.2234733660233132</v>
+        <v>0.6655021790238322</v>
       </c>
       <c r="D2">
-        <v>0.0797080734427027</v>
+        <v>0.2079235441372873</v>
       </c>
       <c r="E2">
-        <v>0.425497448737346</v>
+        <v>1.448606122965813</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3167004636070629</v>
+        <v>0.4685452019784435</v>
       </c>
       <c r="H2">
-        <v>0.4419693898604891</v>
+        <v>0.2831782492657737</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8079598454597203</v>
+        <v>0.579538375877334</v>
       </c>
       <c r="O2">
-        <v>1.446305228668251</v>
+        <v>1.5386109069768</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7464385980046018</v>
+        <v>2.32346837009203</v>
       </c>
       <c r="C3">
-        <v>0.1985273790015185</v>
+        <v>0.5865184134410981</v>
       </c>
       <c r="D3">
-        <v>0.07213913390636151</v>
+        <v>0.1800689835656897</v>
       </c>
       <c r="E3">
-        <v>0.3710987126234215</v>
+        <v>1.242890832367166</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3061705257600238</v>
+        <v>0.4126351340039633</v>
       </c>
       <c r="H3">
-        <v>0.4415624552119937</v>
+        <v>0.2638368612803816</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.812434400066671</v>
+        <v>0.5878255618478931</v>
       </c>
       <c r="O3">
-        <v>1.422795646831162</v>
+        <v>1.379142494600615</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6815076707742946</v>
+        <v>2.109825537015979</v>
       </c>
       <c r="C4">
-        <v>0.1831284550079317</v>
+        <v>0.5380684249531669</v>
       </c>
       <c r="D4">
-        <v>0.06752681047800024</v>
+        <v>0.1631541778553753</v>
       </c>
       <c r="E4">
-        <v>0.3377923118596016</v>
+        <v>1.119055754086915</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.300034475101782</v>
+        <v>0.3795754871072461</v>
       </c>
       <c r="H4">
-        <v>0.4416194215679496</v>
+        <v>0.252703569698113</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8155669144548767</v>
+        <v>0.5938315588613534</v>
       </c>
       <c r="O4">
-        <v>1.409689370933592</v>
+        <v>1.285461873713672</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6550227555186154</v>
+        <v>2.022870052443494</v>
       </c>
       <c r="C5">
-        <v>0.1768329077078761</v>
+        <v>0.5183274124380262</v>
       </c>
       <c r="D5">
-        <v>0.0656560306131837</v>
+        <v>0.1563024762781708</v>
       </c>
       <c r="E5">
-        <v>0.3242415683853039</v>
+        <v>1.069119131231687</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2976162070390131</v>
+        <v>0.3663918373704007</v>
       </c>
       <c r="H5">
-        <v>0.4417196117754543</v>
+        <v>0.2483394985254819</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8169403745251529</v>
+        <v>0.5965007056265321</v>
       </c>
       <c r="O5">
-        <v>1.404680914476586</v>
+        <v>1.248256596163571</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6506234731130007</v>
+        <v>2.008436336992787</v>
       </c>
       <c r="C6">
-        <v>0.175786314713605</v>
+        <v>0.5150493522380941</v>
       </c>
       <c r="D6">
-        <v>0.06534591841133874</v>
+        <v>0.1551670760137256</v>
       </c>
       <c r="E6">
-        <v>0.321992743883655</v>
+        <v>1.06085640727494</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2972196039344226</v>
+        <v>0.3642192619509359</v>
       </c>
       <c r="H6">
-        <v>0.441740892262473</v>
+        <v>0.2476248993307024</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8171742940355671</v>
+        <v>0.5969570480038016</v>
       </c>
       <c r="O6">
-        <v>1.403869295376779</v>
+        <v>1.242134657875965</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6811505859801059</v>
+        <v>2.108652451994772</v>
       </c>
       <c r="C7">
-        <v>0.183043633153261</v>
+        <v>0.5378021908513517</v>
       </c>
       <c r="D7">
-        <v>0.06750154497855476</v>
+        <v>0.1630616142508359</v>
       </c>
       <c r="E7">
-        <v>0.3376094756890495</v>
+        <v>1.11838027658338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3000015293748675</v>
+        <v>0.3793965591417816</v>
       </c>
       <c r="H7">
-        <v>0.4416204613336987</v>
+        <v>0.2526440321304477</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8155850448071078</v>
+        <v>0.5938666700262019</v>
       </c>
       <c r="O7">
-        <v>1.409620481231372</v>
+        <v>1.28495630145099</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8156375692544202</v>
+        <v>2.551927832850481</v>
       </c>
       <c r="C8">
-        <v>0.2148891515977311</v>
+        <v>0.6382533330890965</v>
       </c>
       <c r="D8">
-        <v>0.07709101042431143</v>
+        <v>0.1982764987522927</v>
       </c>
       <c r="E8">
-        <v>0.4067199514648792</v>
+        <v>1.377101805001175</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3130010133544943</v>
+        <v>0.4489847643763056</v>
       </c>
       <c r="H8">
-        <v>0.4417652881954695</v>
+        <v>0.2763466185297432</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8094227936367133</v>
+        <v>0.5821996879871421</v>
       </c>
       <c r="O8">
-        <v>1.437922343378176</v>
+        <v>1.482688727474908</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.078513806947512</v>
+        <v>3.428072325278265</v>
       </c>
       <c r="C9">
-        <v>0.2766793140977484</v>
+        <v>0.836058054789703</v>
       </c>
       <c r="D9">
-        <v>0.09617631966256113</v>
+        <v>0.2691209818851945</v>
       </c>
       <c r="E9">
-        <v>0.5430890381526723</v>
+        <v>1.908885348851257</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3411352589640302</v>
+        <v>0.5970260076649936</v>
       </c>
       <c r="H9">
-        <v>0.4444925873505241</v>
+        <v>0.3293957858648184</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8003910041157383</v>
+        <v>0.5670424872067699</v>
       </c>
       <c r="O9">
-        <v>1.504044797490877</v>
+        <v>1.908649245905565</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.27110733669673</v>
+        <v>4.07936027930333</v>
       </c>
       <c r="C10">
-        <v>0.3216681755163222</v>
+        <v>0.9825995273104979</v>
       </c>
       <c r="D10">
-        <v>0.1103740216886138</v>
+        <v>0.3227109816751863</v>
       </c>
       <c r="E10">
-        <v>0.6439312962175165</v>
+        <v>2.322043195700488</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3634587668815783</v>
+        <v>0.7151502062131385</v>
       </c>
       <c r="H10">
-        <v>0.447999044992315</v>
+        <v>0.3734087656943359</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7956126648292496</v>
+        <v>0.561276124635782</v>
       </c>
       <c r="O10">
-        <v>1.559218994920172</v>
+        <v>2.251935672537911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.358602154837058</v>
+        <v>4.378147001254263</v>
       </c>
       <c r="C11">
-        <v>0.3420449685987137</v>
+        <v>1.049711423019346</v>
       </c>
       <c r="D11">
-        <v>0.1168721984325742</v>
+        <v>0.3475356865345844</v>
       </c>
       <c r="E11">
-        <v>0.689979021072773</v>
+        <v>2.516850797712891</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3739826124665626</v>
+        <v>0.7714936287641336</v>
       </c>
       <c r="H11">
-        <v>0.4499234614084884</v>
+        <v>0.3947829656106592</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7938416253101366</v>
+        <v>0.5599807208450329</v>
       </c>
       <c r="O11">
-        <v>1.585777000038973</v>
+        <v>2.416448159870271</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.391716640454945</v>
+        <v>4.491729916572979</v>
       </c>
       <c r="C12">
-        <v>0.34974815995227</v>
+        <v>1.075206724835027</v>
       </c>
       <c r="D12">
-        <v>0.1193386365585383</v>
+        <v>0.3570104757248913</v>
       </c>
       <c r="E12">
-        <v>0.7074434256330022</v>
+        <v>2.591798273856</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3780214508763322</v>
+        <v>0.793258144354283</v>
       </c>
       <c r="H12">
-        <v>0.4506997646181361</v>
+        <v>0.4030954168910768</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7932288370498668</v>
+        <v>0.5596960241303037</v>
       </c>
       <c r="O12">
-        <v>1.596045590715363</v>
+        <v>2.480109786386151</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.384585656927527</v>
+        <v>4.467246955035023</v>
       </c>
       <c r="C13">
-        <v>0.3480897250406088</v>
+        <v>1.069711940208521</v>
       </c>
       <c r="D13">
-        <v>0.1188071901275976</v>
+        <v>0.3549664395427214</v>
       </c>
       <c r="E13">
-        <v>0.7036809133413868</v>
+        <v>2.575601251132014</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.3771492165402748</v>
+        <v>0.7885507956455626</v>
       </c>
       <c r="H13">
-        <v>0.4505304547858202</v>
+        <v>0.4012950530354544</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.793358238841904</v>
+        <v>0.5597479318046794</v>
       </c>
       <c r="O13">
-        <v>1.593824623218296</v>
+        <v>2.466335639567376</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.361326868493848</v>
+        <v>4.387482264833636</v>
       </c>
       <c r="C14">
-        <v>0.3426789780783679</v>
+        <v>1.051807199686181</v>
       </c>
       <c r="D14">
-        <v>0.1170749989829716</v>
+        <v>0.348313634891241</v>
       </c>
       <c r="E14">
-        <v>0.6914152723078075</v>
+        <v>2.522991965671181</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.3743138104001105</v>
+        <v>0.7732752941215608</v>
       </c>
       <c r="H14">
-        <v>0.449986373766464</v>
+        <v>0.3954623098757111</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7937900513061606</v>
+        <v>0.5599530830375983</v>
       </c>
       <c r="O14">
-        <v>1.586617550756102</v>
+        <v>2.421657296126796</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.347077825393967</v>
+        <v>4.338683694000622</v>
       </c>
       <c r="C15">
-        <v>0.3393630305585873</v>
+        <v>1.040851176933614</v>
       </c>
       <c r="D15">
-        <v>0.1160147276281833</v>
+        <v>0.3442485788217766</v>
       </c>
       <c r="E15">
-        <v>0.6839058088808798</v>
+        <v>2.490926832475822</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3725840533953004</v>
+        <v>0.7639760951430077</v>
       </c>
       <c r="H15">
-        <v>0.4496593096293822</v>
+        <v>0.3919187995477671</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7940620838497381</v>
+        <v>0.5601060165702307</v>
       </c>
       <c r="O15">
-        <v>1.582230628967352</v>
+        <v>2.39447335567391</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265386898229963</v>
+        <v>4.059890858614267</v>
       </c>
       <c r="C16">
-        <v>0.3203346920404329</v>
+        <v>0.9782240447105721</v>
       </c>
       <c r="D16">
-        <v>0.1099501493337414</v>
+        <v>0.3210984459201285</v>
       </c>
       <c r="E16">
-        <v>0.6409256508423624</v>
+        <v>2.309465872049444</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3627784855973033</v>
+        <v>0.7115249513824153</v>
       </c>
       <c r="H16">
-        <v>0.4478799246857079</v>
+        <v>0.3720411220394482</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7957365056688417</v>
+        <v>0.5613887452028763</v>
       </c>
       <c r="O16">
-        <v>1.557512883320413</v>
+        <v>2.241366003654264</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.215241431867071</v>
+        <v>3.889556536695807</v>
       </c>
       <c r="C17">
-        <v>0.3086384626095366</v>
+        <v>0.9399307918822899</v>
       </c>
       <c r="D17">
-        <v>0.1062398829098754</v>
+        <v>0.3070177470872579</v>
       </c>
       <c r="E17">
-        <v>0.6146047871471154</v>
+        <v>2.200030530770462</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3568580055269592</v>
+        <v>0.6800521295827338</v>
       </c>
       <c r="H17">
-        <v>0.4468728258510453</v>
+        <v>0.3602095118693427</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7968668109276962</v>
+        <v>0.5625259299357737</v>
       </c>
       <c r="O17">
-        <v>1.542724342118788</v>
+        <v>2.149689190628635</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.186388142893861</v>
+        <v>3.791816108749401</v>
       </c>
       <c r="C18">
-        <v>0.3019027528762876</v>
+        <v>0.9179467050504684</v>
       </c>
       <c r="D18">
-        <v>0.1041095586376173</v>
+        <v>0.2989602593128069</v>
       </c>
       <c r="E18">
-        <v>0.5994819806032723</v>
+        <v>2.137718974023358</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3534873728815455</v>
+        <v>0.6621917660494461</v>
       </c>
       <c r="H18">
-        <v>0.4463245526658142</v>
+        <v>0.3535300030101354</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7975548336651599</v>
+        <v>0.5633040142019112</v>
       </c>
       <c r="O18">
-        <v>1.534355579889279</v>
+        <v>2.097734259738246</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.176617068809662</v>
+        <v>3.758760392058889</v>
       </c>
       <c r="C19">
-        <v>0.299620732080399</v>
+        <v>0.9105098633554576</v>
       </c>
       <c r="D19">
-        <v>0.1033889059499842</v>
+        <v>0.2962389455001926</v>
       </c>
       <c r="E19">
-        <v>0.5943643868934174</v>
+        <v>2.116724619799186</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3523520693379254</v>
+        <v>0.6561845763696681</v>
       </c>
       <c r="H19">
-        <v>0.4461442317336264</v>
+        <v>0.3512893378688773</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7977942970585801</v>
+        <v>0.5635883249262363</v>
       </c>
       <c r="O19">
-        <v>1.53154557146658</v>
+        <v>2.080271640540957</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.220580642831237</v>
+        <v>3.907664435725565</v>
       </c>
       <c r="C20">
-        <v>0.3098844122096693</v>
+        <v>0.9440027966097375</v>
       </c>
       <c r="D20">
-        <v>0.1066344615928045</v>
+        <v>0.3085123115454564</v>
       </c>
       <c r="E20">
-        <v>0.6174049902606811</v>
+        <v>2.211613318999596</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3574846576700708</v>
+        <v>0.6833770531960823</v>
       </c>
       <c r="H20">
-        <v>0.4469768250250752</v>
+        <v>0.3614558295132753</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7967425656561034</v>
+        <v>0.5623919366828289</v>
       </c>
       <c r="O20">
-        <v>1.544284392898078</v>
+        <v>2.159366989388076</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.36815903295701</v>
+        <v>4.410898515214171</v>
       </c>
       <c r="C21">
-        <v>0.3442686022216606</v>
+        <v>1.057063899682191</v>
       </c>
       <c r="D21">
-        <v>0.1175836300477897</v>
+        <v>0.3502656260008052</v>
       </c>
       <c r="E21">
-        <v>0.695017235251882</v>
+        <v>2.538410951597911</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.3751451756250077</v>
+        <v>0.7777499952578069</v>
       </c>
       <c r="H21">
-        <v>0.4501448908422105</v>
+        <v>0.3971693932939218</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.793661647295508</v>
+        <v>0.5598871130626151</v>
       </c>
       <c r="O21">
-        <v>1.588728683719438</v>
+        <v>2.434741988322429</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.464505191610669</v>
+        <v>4.742391704191391</v>
       </c>
       <c r="C22">
-        <v>0.3666644186203882</v>
+        <v>1.131440227114979</v>
       </c>
       <c r="D22">
-        <v>0.1247728966167472</v>
+        <v>0.3779917780436648</v>
       </c>
       <c r="E22">
-        <v>0.74590045162509</v>
+        <v>2.758968522304798</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.3870005778549626</v>
+        <v>0.8419548842816624</v>
       </c>
       <c r="H22">
-        <v>0.4524927709863391</v>
+        <v>0.4217969950641418</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7919853648367194</v>
+        <v>0.5594577965172078</v>
       </c>
       <c r="O22">
-        <v>1.619010122788836</v>
+        <v>2.622757088262063</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.413093383856221</v>
+        <v>4.565201606986136</v>
       </c>
       <c r="C23">
-        <v>0.3547184174044844</v>
+        <v>1.091693723310073</v>
       </c>
       <c r="D23">
-        <v>0.1209327883019142</v>
+        <v>0.363150161716888</v>
       </c>
       <c r="E23">
-        <v>0.7187278618635133</v>
+        <v>2.640543696517867</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.3806442477987275</v>
+        <v>0.8074371039488852</v>
       </c>
       <c r="H23">
-        <v>0.4512142130389662</v>
+        <v>0.4085264062567688</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7928491773190132</v>
+        <v>0.5595711389453157</v>
       </c>
       <c r="O23">
-        <v>1.602734776216437</v>
+        <v>2.521615213694957</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.21816686020901</v>
+        <v>3.899477277728181</v>
       </c>
       <c r="C24">
-        <v>0.3093211538622711</v>
+        <v>0.9421617472927721</v>
       </c>
       <c r="D24">
-        <v>0.1064560639863004</v>
+        <v>0.3078365022926448</v>
       </c>
       <c r="E24">
-        <v>0.6161389893273395</v>
+        <v>2.206374872362133</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3572012450858324</v>
+        <v>0.6818731310208221</v>
       </c>
       <c r="H24">
-        <v>0.4469297113133166</v>
+        <v>0.3608919890889979</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7967986179577338</v>
+        <v>0.5624521289729856</v>
       </c>
       <c r="O24">
-        <v>1.543578678634987</v>
+        <v>2.154989328612572</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.007492380989447</v>
+        <v>3.189985074982189</v>
       </c>
       <c r="C25">
-        <v>0.2600346739734505</v>
+        <v>0.782389700092267</v>
       </c>
       <c r="D25">
-        <v>0.09098272485020686</v>
+        <v>0.2497199872435232</v>
       </c>
       <c r="E25">
-        <v>0.5060931205242838</v>
+        <v>1.761682991087753</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.333236942504854</v>
+        <v>0.5555128104540898</v>
       </c>
       <c r="H25">
-        <v>0.443491849494194</v>
+        <v>0.3142404641790648</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8025079528096057</v>
+        <v>0.5702511635445546</v>
       </c>
       <c r="O25">
-        <v>1.485007509827227</v>
+        <v>1.788637766673389</v>
       </c>
     </row>
   </sheetData>
